--- a/test-products-list.xlsx
+++ b/test-products-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="323">
   <si>
     <t>idx</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>SNL745854</t>
+  </si>
+  <si>
+    <t>Average Match percent</t>
   </si>
 </sst>
 </file>
@@ -1793,11 +1796,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -23649,6 +23719,9 @@
       </c>
     </row>
     <row r="253" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>322</v>
+      </c>
       <c r="C253">
         <v>93.518189300411507</v>
       </c>
